--- a/CAIXA_format.xlsx
+++ b/CAIXA_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fábrica\Desktop\projetosjoao\python\RelatorioFechamentoCaixa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87060186-9F06-4F31-905C-25CDB5E8CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40774A4-C7DE-44A6-8160-739C7C4FB60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="2295" windowWidth="13410" windowHeight="10485" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>CAIXA DIA //</t>
+  </si>
+  <si>
+    <t>castanha</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,30 +727,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,30 +756,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1">
@@ -799,8 +775,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1177,10 +1173,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK76"/>
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1196,26 +1192,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1322,11 +1318,11 @@
       <c r="B10" s="3"/>
       <c r="C10" s="21"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -1335,14 +1331,14 @@
       <c r="B11" s="3"/>
       <c r="C11" s="21"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="45">
         <f>SUM(F4:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="34">
         <f>SUM(G4:G10)</f>
         <v>0</v>
       </c>
@@ -1412,16 +1408,16 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="21"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="21"/>
@@ -1429,7 +1425,7 @@
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="21"/>
@@ -1437,7 +1433,7 @@
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="21"/>
@@ -1445,7 +1441,7 @@
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="21"/>
@@ -1453,7 +1449,7 @@
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="21"/>
@@ -1461,16 +1457,15 @@
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="21"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="21"/>
@@ -1478,8 +1473,8 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
+      <c r="A28" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="21"/>
@@ -1487,8 +1482,8 @@
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
+      <c r="A29" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="21"/>
@@ -1497,7 +1492,7 @@
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="21"/>
@@ -1506,7 +1501,7 @@
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="21"/>
@@ -1515,7 +1510,7 @@
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="21"/>
@@ -1523,17 +1518,17 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="24"/>
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="21"/>
       <c r="D33" s="4"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -1541,16 +1536,17 @@
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3"/>
+      <c r="A35" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="21"/>
       <c r="D35" s="4"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="21"/>
@@ -1558,7 +1554,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="21"/>
@@ -1566,7 +1562,7 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="21"/>
@@ -1574,31 +1570,31 @@
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="21"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="24"/>
+      <c r="A40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="21"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3"/>
+      <c r="A41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="21"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="21"/>
@@ -1606,173 +1602,180 @@
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="21"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="45" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="44">
-        <f>SUM(B3:B44)</f>
+      <c r="B46" s="38">
+        <f>SUM(B3:B45)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="40">
-        <f>SUM(C4:C44)</f>
+      <c r="C46" s="34">
+        <f>SUM(C4:C45)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="40">
-        <f>SUM(G11+C45)</f>
+      <c r="B48" s="54"/>
+      <c r="C48" s="34">
+        <f>SUM(G11+C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="29"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="30" t="s">
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="31">
-        <f>SUM(B52:B55)</f>
+      <c r="B57" s="26">
+        <f>SUM(B53:B56)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51" t="s">
+    <row r="58" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+      <c r="B59" s="60"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B60" s="41">
         <v>183</v>
       </c>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B61" s="21">
         <v>182</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B62" s="21">
         <v>328</v>
       </c>
-      <c r="C61" s="12"/>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="43"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="B63" s="37"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="40">
-        <f>SUM(B61+B56+B57+B59+B60+B62)</f>
+      <c r="B64" s="34">
+        <f>SUM(B62+B57+B58+B60+B61+B63)</f>
         <v>693</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="20"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="25" t="s">
+    <row r="65" spans="1:3" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="52">
-        <f>SUM(B59-B54)</f>
+      <c r="B66" s="52"/>
+      <c r="C66" s="42">
+        <f>SUM(B60-B55)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,14 +1786,15 @@
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
